--- a/data/ifr_flights_ecac.xlsx
+++ b/data/ifr_flights_ecac.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyven\dev\repos\standard_inputs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EA202D-CC61-4A11-A8F8-ECFD08B62ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E513A4F-B465-49BE-816E-198C8AD81BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ifrflight" sheetId="22" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>December</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>total_2021</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -106,7 +106,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,79 +132,25 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -218,22 +164,14 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -587,51 +525,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE50129-AC0B-4378-9BC4-EE98C90A7689}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -652,12 +585,13 @@
       <c r="G2" s="3">
         <v>787503</v>
       </c>
-      <c r="H2" s="7">
-        <v>0.36231481022929435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="1">
+        <v>-0.63768518977070565</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3">
@@ -678,12 +612,13 @@
       <c r="G3" s="3">
         <v>737763</v>
       </c>
-      <c r="H3" s="7">
-        <v>0.33874564053767947</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="H3" s="1">
+        <v>-0.66125435946232058</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
@@ -704,12 +639,13 @@
       <c r="G4" s="3">
         <v>846442</v>
       </c>
-      <c r="H4" s="7">
-        <v>0.36279036248201296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="1">
+        <v>-0.63720963751798698</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
@@ -730,12 +666,13 @@
       <c r="G5" s="3">
         <v>906539</v>
       </c>
-      <c r="H5" s="7">
-        <v>0.36114497004541446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="H5" s="1">
+        <v>-0.63885502995458554</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
@@ -756,12 +693,13 @@
       <c r="G6" s="3">
         <v>985862</v>
       </c>
-      <c r="H6" s="7">
-        <v>0.3858694218866332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="H6" s="1">
+        <v>-0.6141305781133668</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
@@ -782,12 +720,13 @@
       <c r="G7" s="3">
         <v>1038128</v>
       </c>
-      <c r="H7" s="7">
-        <v>0.49977363099733368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="H7" s="1">
+        <v>-0.50022636900266626</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3">
@@ -808,12 +747,13 @@
       <c r="G8" s="3">
         <v>1092562</v>
       </c>
-      <c r="H8" s="7">
-        <v>0.65195201736835073</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="H8" s="1">
+        <v>-0.34804798263164927</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3">
@@ -834,12 +774,13 @@
       <c r="G9" s="3">
         <v>1080554</v>
       </c>
-      <c r="H9" s="7">
-        <v>0.7062543843250777</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="H9" s="1">
+        <v>-0.2937456156749223</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3">
@@ -860,12 +801,13 @@
       <c r="G10" s="3">
         <v>1034322</v>
       </c>
-      <c r="H10" s="7">
-        <v>0.70415402553556827</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="H10" s="1">
+        <v>-0.29584597446443173</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3">
@@ -886,12 +828,13 @@
       <c r="G11" s="3">
         <v>980049</v>
       </c>
-      <c r="H11" s="7">
-        <v>0.73351434469092869</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="H11" s="1">
+        <v>-0.26648565530907131</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3">
@@ -912,12 +855,13 @@
       <c r="G12" s="3">
         <v>801961</v>
       </c>
-      <c r="H12" s="7">
-        <v>0.77174201737989756</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="H12" s="1">
+        <v>-0.22825798262010244</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="3">
@@ -938,34 +882,114 @@
       <c r="G13" s="3">
         <v>793617</v>
       </c>
-      <c r="H13" s="7">
-        <v>0.78154197805742565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="H13" s="1">
+        <v>-0.21845802194257435</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
         <v>597074</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>596975</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>4887581</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>149122</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>6230752</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>11085302</v>
       </c>
-      <c r="H14" s="7">
-        <v>0.56207327504473947</v>
+      <c r="H14" s="1">
+        <v>-0.43792672495526053</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <f>F2/G2-1</f>
+        <v>-0.63768518977070565</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <f>F3/G3-1</f>
+        <v>-0.66125435946232058</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <f>F4/G4-1</f>
+        <v>-0.63720963751798698</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <f>F5/G5-1</f>
+        <v>-0.63885502995458554</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <f>F6/G6-1</f>
+        <v>-0.6141305781133668</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <f>F7/G7-1</f>
+        <v>-0.50022636900266626</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <f>F8/G8-1</f>
+        <v>-0.34804798263164927</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <f>F9/G9-1</f>
+        <v>-0.2937456156749223</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <f>F10/G10-1</f>
+        <v>-0.29584597446443173</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <f>F11/G11-1</f>
+        <v>-0.26648565530907131</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <f>F12/G12-1</f>
+        <v>-0.22825798262010244</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <f>F13/G13-1</f>
+        <v>-0.21845802194257435</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <f>F14/G14-1</f>
+        <v>-0.43792672495526053</v>
       </c>
     </row>
   </sheetData>
@@ -974,9 +998,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1203,19 +1230,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31941510-E3C3-4953-8B32-BA17BDE21C03}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5F8F857-E121-4686-AFAF-A3028DE7EF87}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1240,9 +1263,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5F8F857-E121-4686-AFAF-A3028DE7EF87}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31941510-E3C3-4953-8B32-BA17BDE21C03}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>